--- a/artfynd/A 66627-2020.xlsx
+++ b/artfynd/A 66627-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111361546</v>
+        <v>111361539</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>4717</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,43 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>102306</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Svartåmaden, Norra Solberga, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489758.5296519329</v>
+        <v>489756.3191431157</v>
       </c>
       <c r="R2" t="n">
-        <v>6395841.70341533</v>
+        <v>6395814.458281666</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111361539</v>
+        <v>111361546</v>
       </c>
       <c r="B3" t="n">
-        <v>4717</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,43 +809,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102306</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Svartåmaden, Norra Solberga, Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489756.3191431157</v>
+        <v>489758.5296519329</v>
       </c>
       <c r="R3" t="n">
-        <v>6395814.458281666</v>
+        <v>6395841.70341533</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 66627-2020.xlsx
+++ b/artfynd/A 66627-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111361539</v>
+        <v>111361546</v>
       </c>
       <c r="B2" t="n">
-        <v>4717</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,43 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>102306</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Svartåmaden, Norra Solberga, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489756.3191431157</v>
+        <v>489758.5296519329</v>
       </c>
       <c r="R2" t="n">
-        <v>6395814.458281666</v>
+        <v>6395841.70341533</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -797,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111361546</v>
+        <v>111361539</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>4717</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,38 +804,43 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>102306</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Svartåmaden, Norra Solberga, Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489758.5296519329</v>
+        <v>489756.3191431157</v>
       </c>
       <c r="R3" t="n">
-        <v>6395841.70341533</v>
+        <v>6395814.458281666</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
